--- a/data/Ingenieria-Admistracion2025/Ingenieria-Admistracion2025/analisis interno.xlsx
+++ b/data/Ingenieria-Admistracion2025/Ingenieria-Admistracion2025/analisis interno.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1FILES\3EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aSISTEMAS\incamotors-landing\data\Ingenieria-Admistracion2025\Ingenieria-Admistracion2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{CDFA4411-9930-4590-AFD8-FC7F852DB9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{596A7CF2-4865-4B76-BDFA-522B859A499E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C58F1C-1880-4A99-8101-AE9392BBD980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entorno interno" sheetId="1" r:id="rId1"/>
     <sheet name="Matriz EFI" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Entorno interno'!$A$1:$I$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Matriz EFI'!$A$1:$F$30</definedName>
+  </definedNames>
   <calcPr calcId="191028" iterate="1" iterateCount="500"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -32,6 +36,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -865,6 +872,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -928,9 +945,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -943,18 +962,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,70 +1113,6 @@
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>372269</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>57515</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>124386</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3" descr="Resultado de imagen para amofhit de una empresa">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9582944" y="952501"/>
-          <a:ext cx="6886146" cy="5534585"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1816,13 +1759,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:J994"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="40.875" style="24" customWidth="1"/>
@@ -1835,28 +1781,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="34.5" customHeight="1">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" customHeight="1">
       <c r="C3" s="26" t="s">
@@ -1865,34 +1811,34 @@
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B5" s="51"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="59"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="27">
         <v>0.3</v>
       </c>
@@ -1905,15 +1851,15 @@
       <c r="H5" s="27">
         <v>0.25</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="68" t="s">
         <v>8</v>
       </c>
       <c r="J5"/>
     </row>
     <row r="6" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B6" s="52"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="43" t="s">
         <v>9</v>
       </c>
@@ -1926,7 +1872,7 @@
       <c r="H6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="65"/>
+      <c r="I6" s="69"/>
     </row>
     <row r="7" spans="2:10" ht="24.75" customHeight="1">
       <c r="B7" s="29" t="s">
@@ -3488,8 +3434,8 @@
       <formula>3.75</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -3499,11 +3445,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
@@ -3515,13 +3461,13 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -3537,10 +3483,10 @@
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="73"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -3559,10 +3505,10 @@
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="31.5">
       <c r="A3" s="9"/>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="67"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="6" t="s">
         <v>39</v>
       </c>
@@ -3580,10 +3526,10 @@
     </row>
     <row r="4" spans="1:18" ht="20.25" customHeight="1" thickBot="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="78"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
@@ -3891,10 +3837,10 @@
     </row>
     <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="79"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -3981,7 +3927,7 @@
       <c r="B22" s="14">
         <v>4</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="49" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="40">
@@ -4005,10 +3951,10 @@
       <c r="B23" s="14">
         <v>5</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="48">
         <v>0.04</v>
       </c>
       <c r="E23" s="37">
@@ -4029,7 +3975,7 @@
       <c r="B24" s="14">
         <v>6</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="50" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="40">
@@ -4170,10 +4116,10 @@
     </row>
     <row r="30" spans="1:11" ht="21.75" customHeight="1">
       <c r="A30" s="10"/>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="71"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="7">
         <f>SUM(D5:D29)</f>
         <v>1.0000000000000002</v>
@@ -5260,6 +5206,12 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="93" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="30" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="6" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>